--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\FP-growth\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\learn\Data mining\fp_growth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8A6B313-4A2A-4C25-BF54-E500E75570AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D42BDD2-ACEA-4580-BC01-EFD10627E112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CD86C5C6-4025-4CB4-A2A3-2FC406E528CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
+    <t>TiD</t>
+  </si>
+  <si>
     <t>items</t>
-  </si>
-  <si>
-    <t>TID</t>
   </si>
   <si>
     <t>A,B,C,D,E,F</t>
@@ -90,8 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,7 +129,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -138,7 +141,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -185,23 +188,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -237,23 +223,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -405,100 +374,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761DB9B7-C5BC-4119-AB9D-735368E93C4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
